--- a/Junin.xlsx
+++ b/Junin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:P25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,17 +486,32 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
+          <t>Delegación</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Año_Cosecha</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>Apartamiento</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Rinde2</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Prediccion</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Apart_%</t>
         </is>
       </c>
     </row>
@@ -540,13 +555,22 @@
         <v>3000</v>
       </c>
       <c r="K2" t="n">
+        <v>6413</v>
+      </c>
+      <c r="L2" t="n">
+        <v>2001</v>
+      </c>
+      <c r="M2" t="n">
         <v>-368.4400000000001</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>2960</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>3328.44</v>
+      </c>
+      <c r="P2" t="n">
+        <v>-12.4472972972973</v>
       </c>
     </row>
     <row r="3">
@@ -589,13 +613,22 @@
         <v>3203</v>
       </c>
       <c r="K3" t="n">
+        <v>6413</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2002</v>
+      </c>
+      <c r="M3" t="n">
         <v>-147.9017391304346</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>3203</v>
       </c>
-      <c r="M3" t="n">
+      <c r="O3" t="n">
         <v>3350.901739130435</v>
+      </c>
+      <c r="P3" t="n">
+        <v>-4.617600347500301</v>
       </c>
     </row>
     <row r="4">
@@ -638,13 +671,22 @@
         <v>3403</v>
       </c>
       <c r="K4" t="n">
+        <v>6413</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2003</v>
+      </c>
+      <c r="M4" t="n">
         <v>22.63652173913033</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>3396</v>
       </c>
-      <c r="M4" t="n">
+      <c r="O4" t="n">
         <v>3373.36347826087</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.666564244379574</v>
       </c>
     </row>
     <row r="5">
@@ -687,13 +729,22 @@
         <v>2900</v>
       </c>
       <c r="K5" t="n">
+        <v>6413</v>
+      </c>
+      <c r="L5" t="n">
+        <v>2004</v>
+      </c>
+      <c r="M5" t="n">
         <v>-495.8252173913042</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>2900</v>
       </c>
-      <c r="M5" t="n">
+      <c r="O5" t="n">
         <v>3395.825217391304</v>
+      </c>
+      <c r="P5" t="n">
+        <v>-17.09742128935532</v>
       </c>
     </row>
     <row r="6">
@@ -736,13 +787,22 @@
         <v>3555</v>
       </c>
       <c r="K6" t="n">
+        <v>6413</v>
+      </c>
+      <c r="L6" t="n">
+        <v>2005</v>
+      </c>
+      <c r="M6" t="n">
         <v>136.7130434782607</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>3555</v>
       </c>
-      <c r="M6" t="n">
+      <c r="O6" t="n">
         <v>3418.286956521739</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3.845655231455997</v>
       </c>
     </row>
     <row r="7">
@@ -785,13 +845,22 @@
         <v>3379</v>
       </c>
       <c r="K7" t="n">
+        <v>6413</v>
+      </c>
+      <c r="L7" t="n">
+        <v>2006</v>
+      </c>
+      <c r="M7" t="n">
         <v>-61.74869565217386</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>3379</v>
       </c>
-      <c r="M7" t="n">
+      <c r="O7" t="n">
         <v>3440.748695652174</v>
+      </c>
+      <c r="P7" t="n">
+        <v>-1.827425145077652</v>
       </c>
     </row>
     <row r="8">
@@ -834,13 +903,22 @@
         <v>3800</v>
       </c>
       <c r="K8" t="n">
+        <v>6413</v>
+      </c>
+      <c r="L8" t="n">
+        <v>2007</v>
+      </c>
+      <c r="M8" t="n">
         <v>336.7895652173911</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>3800</v>
       </c>
-      <c r="M8" t="n">
+      <c r="O8" t="n">
         <v>3463.210434782609</v>
+      </c>
+      <c r="P8" t="n">
+        <v>8.862883295194504</v>
       </c>
     </row>
     <row r="9">
@@ -883,13 +961,22 @@
         <v>4174</v>
       </c>
       <c r="K9" t="n">
+        <v>6413</v>
+      </c>
+      <c r="L9" t="n">
+        <v>2008</v>
+      </c>
+      <c r="M9" t="n">
         <v>688.3278260869565</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>4174</v>
       </c>
-      <c r="M9" t="n">
+      <c r="O9" t="n">
         <v>3485.672173913043</v>
+      </c>
+      <c r="P9" t="n">
+        <v>16.49084394075123</v>
       </c>
     </row>
     <row r="10">
@@ -932,13 +1019,22 @@
         <v>1630</v>
       </c>
       <c r="K10" t="n">
+        <v>6413</v>
+      </c>
+      <c r="L10" t="n">
+        <v>2009</v>
+      </c>
+      <c r="M10" t="n">
         <v>-1878.133913043478</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>1630</v>
       </c>
-      <c r="M10" t="n">
+      <c r="O10" t="n">
         <v>3508.133913043478</v>
+      </c>
+      <c r="P10" t="n">
+        <v>-115.2229394505201</v>
       </c>
     </row>
     <row r="11">
@@ -981,13 +1077,22 @@
         <v>3500</v>
       </c>
       <c r="K11" t="n">
+        <v>6413</v>
+      </c>
+      <c r="L11" t="n">
+        <v>2010</v>
+      </c>
+      <c r="M11" t="n">
         <v>-30.59565217391309</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>3500</v>
       </c>
-      <c r="M11" t="n">
+      <c r="O11" t="n">
         <v>3530.595652173913</v>
+      </c>
+      <c r="P11" t="n">
+        <v>-0.8741614906832312</v>
       </c>
     </row>
     <row r="12">
@@ -1030,13 +1135,22 @@
         <v>4000</v>
       </c>
       <c r="K12" t="n">
+        <v>6413</v>
+      </c>
+      <c r="L12" t="n">
+        <v>2011</v>
+      </c>
+      <c r="M12" t="n">
         <v>446.9426086956523</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12" t="n">
         <v>4000</v>
       </c>
-      <c r="M12" t="n">
+      <c r="O12" t="n">
         <v>3553.057391304348</v>
+      </c>
+      <c r="P12" t="n">
+        <v>11.17356521739131</v>
       </c>
     </row>
     <row r="13">
@@ -1079,13 +1193,22 @@
         <v>3400</v>
       </c>
       <c r="K13" t="n">
+        <v>6413</v>
+      </c>
+      <c r="L13" t="n">
+        <v>2012</v>
+      </c>
+      <c r="M13" t="n">
         <v>-175.5191304347827</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N13" t="n">
         <v>3400</v>
       </c>
-      <c r="M13" t="n">
+      <c r="O13" t="n">
         <v>3575.519130434783</v>
+      </c>
+      <c r="P13" t="n">
+        <v>-5.162327365728903</v>
       </c>
     </row>
     <row r="14">
@@ -1128,13 +1251,22 @@
         <v>3800</v>
       </c>
       <c r="K14" t="n">
+        <v>6413</v>
+      </c>
+      <c r="L14" t="n">
+        <v>2013</v>
+      </c>
+      <c r="M14" t="n">
         <v>202.0191304347827</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N14" t="n">
         <v>3800</v>
       </c>
-      <c r="M14" t="n">
+      <c r="O14" t="n">
         <v>3597.980869565217</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5.316292906178492</v>
       </c>
     </row>
     <row r="15">
@@ -1177,13 +1309,22 @@
         <v>4200</v>
       </c>
       <c r="K15" t="n">
+        <v>6413</v>
+      </c>
+      <c r="L15" t="n">
+        <v>2014</v>
+      </c>
+      <c r="M15" t="n">
         <v>511.5573913043477</v>
       </c>
-      <c r="L15" t="n">
+      <c r="N15" t="n">
         <v>4132</v>
       </c>
-      <c r="M15" t="n">
+      <c r="O15" t="n">
         <v>3620.442608695652</v>
+      </c>
+      <c r="P15" t="n">
+        <v>12.38038217096679</v>
       </c>
     </row>
     <row r="16">
@@ -1226,13 +1367,22 @@
         <v>4600</v>
       </c>
       <c r="K16" t="n">
+        <v>6413</v>
+      </c>
+      <c r="L16" t="n">
+        <v>2015</v>
+      </c>
+      <c r="M16" t="n">
         <v>873.0956521739131</v>
       </c>
-      <c r="L16" t="n">
+      <c r="N16" t="n">
         <v>4516</v>
       </c>
-      <c r="M16" t="n">
+      <c r="O16" t="n">
         <v>3642.904347826087</v>
+      </c>
+      <c r="P16" t="n">
+        <v>19.33338468055609</v>
       </c>
     </row>
     <row r="17">
@@ -1275,13 +1425,22 @@
         <v>4100</v>
       </c>
       <c r="K17" t="n">
+        <v>6413</v>
+      </c>
+      <c r="L17" t="n">
+        <v>2016</v>
+      </c>
+      <c r="M17" t="n">
         <v>434.6339130434781</v>
       </c>
-      <c r="L17" t="n">
+      <c r="N17" t="n">
         <v>4100</v>
       </c>
-      <c r="M17" t="n">
+      <c r="O17" t="n">
         <v>3665.366086956522</v>
+      </c>
+      <c r="P17" t="n">
+        <v>10.6008271474019</v>
       </c>
     </row>
     <row r="18">
@@ -1324,13 +1483,22 @@
         <v>4600</v>
       </c>
       <c r="K18" t="n">
+        <v>6413</v>
+      </c>
+      <c r="L18" t="n">
+        <v>2017</v>
+      </c>
+      <c r="M18" t="n">
         <v>567.1721739130435</v>
       </c>
-      <c r="L18" t="n">
+      <c r="N18" t="n">
         <v>4255</v>
       </c>
-      <c r="M18" t="n">
+      <c r="O18" t="n">
         <v>3687.827826086957</v>
+      </c>
+      <c r="P18" t="n">
+        <v>13.32954580289174</v>
       </c>
     </row>
     <row r="19">
@@ -1373,13 +1541,22 @@
         <v>4000</v>
       </c>
       <c r="K19" t="n">
+        <v>6413</v>
+      </c>
+      <c r="L19" t="n">
+        <v>2018</v>
+      </c>
+      <c r="M19" t="n">
         <v>208.7104347826089</v>
       </c>
-      <c r="L19" t="n">
+      <c r="N19" t="n">
         <v>3919</v>
       </c>
-      <c r="M19" t="n">
+      <c r="O19" t="n">
         <v>3710.289565217391</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5.325604357810893</v>
       </c>
     </row>
     <row r="20">
@@ -1422,13 +1599,22 @@
         <v>4500</v>
       </c>
       <c r="K20" t="n">
+        <v>6413</v>
+      </c>
+      <c r="L20" t="n">
+        <v>2019</v>
+      </c>
+      <c r="M20" t="n">
         <v>767.2486956521739</v>
       </c>
-      <c r="L20" t="n">
+      <c r="N20" t="n">
         <v>4500</v>
       </c>
-      <c r="M20" t="n">
+      <c r="O20" t="n">
         <v>3732.751304347826</v>
+      </c>
+      <c r="P20" t="n">
+        <v>17.04997101449275</v>
       </c>
     </row>
     <row r="21">
@@ -1471,13 +1657,22 @@
         <v>4200</v>
       </c>
       <c r="K21" t="n">
+        <v>6413</v>
+      </c>
+      <c r="L21" t="n">
+        <v>2020</v>
+      </c>
+      <c r="M21" t="n">
         <v>424.7869565217393</v>
       </c>
-      <c r="L21" t="n">
+      <c r="N21" t="n">
         <v>4180</v>
       </c>
-      <c r="M21" t="n">
+      <c r="O21" t="n">
         <v>3755.213043478261</v>
+      </c>
+      <c r="P21" t="n">
+        <v>10.16236738090285</v>
       </c>
     </row>
     <row r="22">
@@ -1520,13 +1715,22 @@
         <v>4000</v>
       </c>
       <c r="K22" t="n">
+        <v>6413</v>
+      </c>
+      <c r="L22" t="n">
+        <v>2021</v>
+      </c>
+      <c r="M22" t="n">
         <v>222.3252173913042</v>
       </c>
-      <c r="L22" t="n">
+      <c r="N22" t="n">
         <v>4000</v>
       </c>
-      <c r="M22" t="n">
+      <c r="O22" t="n">
         <v>3777.674782608696</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5.558130434782607</v>
       </c>
     </row>
     <row r="23">
@@ -1569,13 +1773,22 @@
         <v>3600</v>
       </c>
       <c r="K23" t="n">
+        <v>6413</v>
+      </c>
+      <c r="L23" t="n">
+        <v>2022</v>
+      </c>
+      <c r="M23" t="n">
         <v>-217.1365217391303</v>
       </c>
-      <c r="L23" t="n">
+      <c r="N23" t="n">
         <v>3583</v>
       </c>
-      <c r="M23" t="n">
+      <c r="O23" t="n">
         <v>3800.13652173913</v>
+      </c>
+      <c r="P23" t="n">
+        <v>-6.060187600868834</v>
       </c>
     </row>
     <row r="24">
@@ -1618,13 +1831,22 @@
         <v>2000</v>
       </c>
       <c r="K24" t="n">
+        <v>6413</v>
+      </c>
+      <c r="L24" t="n">
+        <v>2023</v>
+      </c>
+      <c r="M24" t="n">
         <v>-1822.598260869565</v>
       </c>
-      <c r="L24" t="n">
+      <c r="N24" t="n">
         <v>2000</v>
       </c>
-      <c r="M24" t="n">
+      <c r="O24" t="n">
         <v>3822.598260869565</v>
+      </c>
+      <c r="P24" t="n">
+        <v>-91.12991304347827</v>
       </c>
     </row>
     <row r="25">
@@ -1667,13 +1889,22 @@
         <v>3200</v>
       </c>
       <c r="K25" t="n">
+        <v>6413</v>
+      </c>
+      <c r="L25" t="n">
+        <v>2024</v>
+      </c>
+      <c r="M25" t="n">
         <v>-645.0599999999999</v>
       </c>
-      <c r="L25" t="n">
+      <c r="N25" t="n">
         <v>3200</v>
       </c>
-      <c r="M25" t="n">
+      <c r="O25" t="n">
         <v>3845.06</v>
+      </c>
+      <c r="P25" t="n">
+        <v>-20.158125</v>
       </c>
     </row>
   </sheetData>

--- a/Junin.xlsx
+++ b/Junin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,25 +491,30 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
+          <t>reg_cod</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>Año_Cosecha</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Apartamiento</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Rinde2</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Prediccion</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Apart_%</t>
         </is>
@@ -554,22 +559,27 @@
       <c r="J2" t="n">
         <v>3000</v>
       </c>
-      <c r="K2" t="n">
-        <v>6413</v>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Junín</t>
+        </is>
       </c>
       <c r="L2" t="n">
+        <v>16</v>
+      </c>
+      <c r="M2" t="n">
         <v>2001</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>-368.4400000000001</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>2960</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>3328.44</v>
       </c>
-      <c r="P2" t="n">
+      <c r="Q2" t="n">
         <v>-12.4472972972973</v>
       </c>
     </row>
@@ -612,22 +622,27 @@
       <c r="J3" t="n">
         <v>3203</v>
       </c>
-      <c r="K3" t="n">
-        <v>6413</v>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Junín</t>
+        </is>
       </c>
       <c r="L3" t="n">
+        <v>16</v>
+      </c>
+      <c r="M3" t="n">
         <v>2002</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>-147.9017391304346</v>
       </c>
-      <c r="N3" t="n">
+      <c r="O3" t="n">
         <v>3203</v>
       </c>
-      <c r="O3" t="n">
+      <c r="P3" t="n">
         <v>3350.901739130435</v>
       </c>
-      <c r="P3" t="n">
+      <c r="Q3" t="n">
         <v>-4.617600347500301</v>
       </c>
     </row>
@@ -670,22 +685,27 @@
       <c r="J4" t="n">
         <v>3403</v>
       </c>
-      <c r="K4" t="n">
-        <v>6413</v>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Junín</t>
+        </is>
       </c>
       <c r="L4" t="n">
+        <v>16</v>
+      </c>
+      <c r="M4" t="n">
         <v>2003</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>22.63652173913033</v>
       </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>3396</v>
       </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
         <v>3373.36347826087</v>
       </c>
-      <c r="P4" t="n">
+      <c r="Q4" t="n">
         <v>0.666564244379574</v>
       </c>
     </row>
@@ -728,22 +748,27 @@
       <c r="J5" t="n">
         <v>2900</v>
       </c>
-      <c r="K5" t="n">
-        <v>6413</v>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Junín</t>
+        </is>
       </c>
       <c r="L5" t="n">
+        <v>16</v>
+      </c>
+      <c r="M5" t="n">
         <v>2004</v>
       </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
         <v>-495.8252173913042</v>
       </c>
-      <c r="N5" t="n">
+      <c r="O5" t="n">
         <v>2900</v>
       </c>
-      <c r="O5" t="n">
+      <c r="P5" t="n">
         <v>3395.825217391304</v>
       </c>
-      <c r="P5" t="n">
+      <c r="Q5" t="n">
         <v>-17.09742128935532</v>
       </c>
     </row>
@@ -786,22 +811,27 @@
       <c r="J6" t="n">
         <v>3555</v>
       </c>
-      <c r="K6" t="n">
-        <v>6413</v>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Junín</t>
+        </is>
       </c>
       <c r="L6" t="n">
+        <v>16</v>
+      </c>
+      <c r="M6" t="n">
         <v>2005</v>
       </c>
-      <c r="M6" t="n">
+      <c r="N6" t="n">
         <v>136.7130434782607</v>
       </c>
-      <c r="N6" t="n">
+      <c r="O6" t="n">
         <v>3555</v>
       </c>
-      <c r="O6" t="n">
+      <c r="P6" t="n">
         <v>3418.286956521739</v>
       </c>
-      <c r="P6" t="n">
+      <c r="Q6" t="n">
         <v>3.845655231455997</v>
       </c>
     </row>
@@ -844,22 +874,27 @@
       <c r="J7" t="n">
         <v>3379</v>
       </c>
-      <c r="K7" t="n">
-        <v>6413</v>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Junín</t>
+        </is>
       </c>
       <c r="L7" t="n">
+        <v>16</v>
+      </c>
+      <c r="M7" t="n">
         <v>2006</v>
       </c>
-      <c r="M7" t="n">
+      <c r="N7" t="n">
         <v>-61.74869565217386</v>
       </c>
-      <c r="N7" t="n">
+      <c r="O7" t="n">
         <v>3379</v>
       </c>
-      <c r="O7" t="n">
+      <c r="P7" t="n">
         <v>3440.748695652174</v>
       </c>
-      <c r="P7" t="n">
+      <c r="Q7" t="n">
         <v>-1.827425145077652</v>
       </c>
     </row>
@@ -902,22 +937,27 @@
       <c r="J8" t="n">
         <v>3800</v>
       </c>
-      <c r="K8" t="n">
-        <v>6413</v>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Junín</t>
+        </is>
       </c>
       <c r="L8" t="n">
+        <v>16</v>
+      </c>
+      <c r="M8" t="n">
         <v>2007</v>
       </c>
-      <c r="M8" t="n">
+      <c r="N8" t="n">
         <v>336.7895652173911</v>
       </c>
-      <c r="N8" t="n">
+      <c r="O8" t="n">
         <v>3800</v>
       </c>
-      <c r="O8" t="n">
+      <c r="P8" t="n">
         <v>3463.210434782609</v>
       </c>
-      <c r="P8" t="n">
+      <c r="Q8" t="n">
         <v>8.862883295194504</v>
       </c>
     </row>
@@ -960,22 +1000,27 @@
       <c r="J9" t="n">
         <v>4174</v>
       </c>
-      <c r="K9" t="n">
-        <v>6413</v>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Junín</t>
+        </is>
       </c>
       <c r="L9" t="n">
+        <v>16</v>
+      </c>
+      <c r="M9" t="n">
         <v>2008</v>
       </c>
-      <c r="M9" t="n">
+      <c r="N9" t="n">
         <v>688.3278260869565</v>
       </c>
-      <c r="N9" t="n">
+      <c r="O9" t="n">
         <v>4174</v>
       </c>
-      <c r="O9" t="n">
+      <c r="P9" t="n">
         <v>3485.672173913043</v>
       </c>
-      <c r="P9" t="n">
+      <c r="Q9" t="n">
         <v>16.49084394075123</v>
       </c>
     </row>
@@ -1018,22 +1063,27 @@
       <c r="J10" t="n">
         <v>1630</v>
       </c>
-      <c r="K10" t="n">
-        <v>6413</v>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Junín</t>
+        </is>
       </c>
       <c r="L10" t="n">
+        <v>16</v>
+      </c>
+      <c r="M10" t="n">
         <v>2009</v>
       </c>
-      <c r="M10" t="n">
+      <c r="N10" t="n">
         <v>-1878.133913043478</v>
       </c>
-      <c r="N10" t="n">
+      <c r="O10" t="n">
         <v>1630</v>
       </c>
-      <c r="O10" t="n">
+      <c r="P10" t="n">
         <v>3508.133913043478</v>
       </c>
-      <c r="P10" t="n">
+      <c r="Q10" t="n">
         <v>-115.2229394505201</v>
       </c>
     </row>
@@ -1076,22 +1126,27 @@
       <c r="J11" t="n">
         <v>3500</v>
       </c>
-      <c r="K11" t="n">
-        <v>6413</v>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Junín</t>
+        </is>
       </c>
       <c r="L11" t="n">
+        <v>16</v>
+      </c>
+      <c r="M11" t="n">
         <v>2010</v>
       </c>
-      <c r="M11" t="n">
+      <c r="N11" t="n">
         <v>-30.59565217391309</v>
       </c>
-      <c r="N11" t="n">
+      <c r="O11" t="n">
         <v>3500</v>
       </c>
-      <c r="O11" t="n">
+      <c r="P11" t="n">
         <v>3530.595652173913</v>
       </c>
-      <c r="P11" t="n">
+      <c r="Q11" t="n">
         <v>-0.8741614906832312</v>
       </c>
     </row>
@@ -1134,22 +1189,27 @@
       <c r="J12" t="n">
         <v>4000</v>
       </c>
-      <c r="K12" t="n">
-        <v>6413</v>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Junín</t>
+        </is>
       </c>
       <c r="L12" t="n">
+        <v>16</v>
+      </c>
+      <c r="M12" t="n">
         <v>2011</v>
       </c>
-      <c r="M12" t="n">
+      <c r="N12" t="n">
         <v>446.9426086956523</v>
       </c>
-      <c r="N12" t="n">
+      <c r="O12" t="n">
         <v>4000</v>
       </c>
-      <c r="O12" t="n">
+      <c r="P12" t="n">
         <v>3553.057391304348</v>
       </c>
-      <c r="P12" t="n">
+      <c r="Q12" t="n">
         <v>11.17356521739131</v>
       </c>
     </row>
@@ -1192,22 +1252,27 @@
       <c r="J13" t="n">
         <v>3400</v>
       </c>
-      <c r="K13" t="n">
-        <v>6413</v>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Junín</t>
+        </is>
       </c>
       <c r="L13" t="n">
+        <v>16</v>
+      </c>
+      <c r="M13" t="n">
         <v>2012</v>
       </c>
-      <c r="M13" t="n">
+      <c r="N13" t="n">
         <v>-175.5191304347827</v>
       </c>
-      <c r="N13" t="n">
+      <c r="O13" t="n">
         <v>3400</v>
       </c>
-      <c r="O13" t="n">
+      <c r="P13" t="n">
         <v>3575.519130434783</v>
       </c>
-      <c r="P13" t="n">
+      <c r="Q13" t="n">
         <v>-5.162327365728903</v>
       </c>
     </row>
@@ -1250,22 +1315,27 @@
       <c r="J14" t="n">
         <v>3800</v>
       </c>
-      <c r="K14" t="n">
-        <v>6413</v>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Junín</t>
+        </is>
       </c>
       <c r="L14" t="n">
+        <v>16</v>
+      </c>
+      <c r="M14" t="n">
         <v>2013</v>
       </c>
-      <c r="M14" t="n">
+      <c r="N14" t="n">
         <v>202.0191304347827</v>
       </c>
-      <c r="N14" t="n">
+      <c r="O14" t="n">
         <v>3800</v>
       </c>
-      <c r="O14" t="n">
+      <c r="P14" t="n">
         <v>3597.980869565217</v>
       </c>
-      <c r="P14" t="n">
+      <c r="Q14" t="n">
         <v>5.316292906178492</v>
       </c>
     </row>
@@ -1308,22 +1378,27 @@
       <c r="J15" t="n">
         <v>4200</v>
       </c>
-      <c r="K15" t="n">
-        <v>6413</v>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Junín</t>
+        </is>
       </c>
       <c r="L15" t="n">
+        <v>16</v>
+      </c>
+      <c r="M15" t="n">
         <v>2014</v>
       </c>
-      <c r="M15" t="n">
+      <c r="N15" t="n">
         <v>511.5573913043477</v>
       </c>
-      <c r="N15" t="n">
+      <c r="O15" t="n">
         <v>4132</v>
       </c>
-      <c r="O15" t="n">
+      <c r="P15" t="n">
         <v>3620.442608695652</v>
       </c>
-      <c r="P15" t="n">
+      <c r="Q15" t="n">
         <v>12.38038217096679</v>
       </c>
     </row>
@@ -1366,22 +1441,27 @@
       <c r="J16" t="n">
         <v>4600</v>
       </c>
-      <c r="K16" t="n">
-        <v>6413</v>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Junín</t>
+        </is>
       </c>
       <c r="L16" t="n">
+        <v>16</v>
+      </c>
+      <c r="M16" t="n">
         <v>2015</v>
       </c>
-      <c r="M16" t="n">
+      <c r="N16" t="n">
         <v>873.0956521739131</v>
       </c>
-      <c r="N16" t="n">
+      <c r="O16" t="n">
         <v>4516</v>
       </c>
-      <c r="O16" t="n">
+      <c r="P16" t="n">
         <v>3642.904347826087</v>
       </c>
-      <c r="P16" t="n">
+      <c r="Q16" t="n">
         <v>19.33338468055609</v>
       </c>
     </row>
@@ -1424,22 +1504,27 @@
       <c r="J17" t="n">
         <v>4100</v>
       </c>
-      <c r="K17" t="n">
-        <v>6413</v>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Junín</t>
+        </is>
       </c>
       <c r="L17" t="n">
+        <v>16</v>
+      </c>
+      <c r="M17" t="n">
         <v>2016</v>
       </c>
-      <c r="M17" t="n">
+      <c r="N17" t="n">
         <v>434.6339130434781</v>
       </c>
-      <c r="N17" t="n">
+      <c r="O17" t="n">
         <v>4100</v>
       </c>
-      <c r="O17" t="n">
+      <c r="P17" t="n">
         <v>3665.366086956522</v>
       </c>
-      <c r="P17" t="n">
+      <c r="Q17" t="n">
         <v>10.6008271474019</v>
       </c>
     </row>
@@ -1482,22 +1567,27 @@
       <c r="J18" t="n">
         <v>4600</v>
       </c>
-      <c r="K18" t="n">
-        <v>6413</v>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Junín</t>
+        </is>
       </c>
       <c r="L18" t="n">
+        <v>16</v>
+      </c>
+      <c r="M18" t="n">
         <v>2017</v>
       </c>
-      <c r="M18" t="n">
+      <c r="N18" t="n">
         <v>567.1721739130435</v>
       </c>
-      <c r="N18" t="n">
+      <c r="O18" t="n">
         <v>4255</v>
       </c>
-      <c r="O18" t="n">
+      <c r="P18" t="n">
         <v>3687.827826086957</v>
       </c>
-      <c r="P18" t="n">
+      <c r="Q18" t="n">
         <v>13.32954580289174</v>
       </c>
     </row>
@@ -1540,22 +1630,27 @@
       <c r="J19" t="n">
         <v>4000</v>
       </c>
-      <c r="K19" t="n">
-        <v>6413</v>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Junín</t>
+        </is>
       </c>
       <c r="L19" t="n">
+        <v>16</v>
+      </c>
+      <c r="M19" t="n">
         <v>2018</v>
       </c>
-      <c r="M19" t="n">
+      <c r="N19" t="n">
         <v>208.7104347826089</v>
       </c>
-      <c r="N19" t="n">
+      <c r="O19" t="n">
         <v>3919</v>
       </c>
-      <c r="O19" t="n">
+      <c r="P19" t="n">
         <v>3710.289565217391</v>
       </c>
-      <c r="P19" t="n">
+      <c r="Q19" t="n">
         <v>5.325604357810893</v>
       </c>
     </row>
@@ -1598,22 +1693,27 @@
       <c r="J20" t="n">
         <v>4500</v>
       </c>
-      <c r="K20" t="n">
-        <v>6413</v>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Junín</t>
+        </is>
       </c>
       <c r="L20" t="n">
+        <v>16</v>
+      </c>
+      <c r="M20" t="n">
         <v>2019</v>
       </c>
-      <c r="M20" t="n">
+      <c r="N20" t="n">
         <v>767.2486956521739</v>
       </c>
-      <c r="N20" t="n">
+      <c r="O20" t="n">
         <v>4500</v>
       </c>
-      <c r="O20" t="n">
+      <c r="P20" t="n">
         <v>3732.751304347826</v>
       </c>
-      <c r="P20" t="n">
+      <c r="Q20" t="n">
         <v>17.04997101449275</v>
       </c>
     </row>
@@ -1656,22 +1756,27 @@
       <c r="J21" t="n">
         <v>4200</v>
       </c>
-      <c r="K21" t="n">
-        <v>6413</v>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Junín</t>
+        </is>
       </c>
       <c r="L21" t="n">
+        <v>16</v>
+      </c>
+      <c r="M21" t="n">
         <v>2020</v>
       </c>
-      <c r="M21" t="n">
+      <c r="N21" t="n">
         <v>424.7869565217393</v>
       </c>
-      <c r="N21" t="n">
+      <c r="O21" t="n">
         <v>4180</v>
       </c>
-      <c r="O21" t="n">
+      <c r="P21" t="n">
         <v>3755.213043478261</v>
       </c>
-      <c r="P21" t="n">
+      <c r="Q21" t="n">
         <v>10.16236738090285</v>
       </c>
     </row>
@@ -1714,22 +1819,27 @@
       <c r="J22" t="n">
         <v>4000</v>
       </c>
-      <c r="K22" t="n">
-        <v>6413</v>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Junín</t>
+        </is>
       </c>
       <c r="L22" t="n">
+        <v>16</v>
+      </c>
+      <c r="M22" t="n">
         <v>2021</v>
       </c>
-      <c r="M22" t="n">
+      <c r="N22" t="n">
         <v>222.3252173913042</v>
       </c>
-      <c r="N22" t="n">
+      <c r="O22" t="n">
         <v>4000</v>
       </c>
-      <c r="O22" t="n">
+      <c r="P22" t="n">
         <v>3777.674782608696</v>
       </c>
-      <c r="P22" t="n">
+      <c r="Q22" t="n">
         <v>5.558130434782607</v>
       </c>
     </row>
@@ -1772,22 +1882,27 @@
       <c r="J23" t="n">
         <v>3600</v>
       </c>
-      <c r="K23" t="n">
-        <v>6413</v>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Junín</t>
+        </is>
       </c>
       <c r="L23" t="n">
+        <v>16</v>
+      </c>
+      <c r="M23" t="n">
         <v>2022</v>
       </c>
-      <c r="M23" t="n">
+      <c r="N23" t="n">
         <v>-217.1365217391303</v>
       </c>
-      <c r="N23" t="n">
+      <c r="O23" t="n">
         <v>3583</v>
       </c>
-      <c r="O23" t="n">
+      <c r="P23" t="n">
         <v>3800.13652173913</v>
       </c>
-      <c r="P23" t="n">
+      <c r="Q23" t="n">
         <v>-6.060187600868834</v>
       </c>
     </row>
@@ -1830,22 +1945,27 @@
       <c r="J24" t="n">
         <v>2000</v>
       </c>
-      <c r="K24" t="n">
-        <v>6413</v>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Junín</t>
+        </is>
       </c>
       <c r="L24" t="n">
+        <v>16</v>
+      </c>
+      <c r="M24" t="n">
         <v>2023</v>
       </c>
-      <c r="M24" t="n">
+      <c r="N24" t="n">
         <v>-1822.598260869565</v>
       </c>
-      <c r="N24" t="n">
+      <c r="O24" t="n">
         <v>2000</v>
       </c>
-      <c r="O24" t="n">
+      <c r="P24" t="n">
         <v>3822.598260869565</v>
       </c>
-      <c r="P24" t="n">
+      <c r="Q24" t="n">
         <v>-91.12991304347827</v>
       </c>
     </row>
@@ -1888,22 +2008,27 @@
       <c r="J25" t="n">
         <v>3200</v>
       </c>
-      <c r="K25" t="n">
-        <v>6413</v>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>Junín</t>
+        </is>
       </c>
       <c r="L25" t="n">
+        <v>16</v>
+      </c>
+      <c r="M25" t="n">
         <v>2024</v>
       </c>
-      <c r="M25" t="n">
+      <c r="N25" t="n">
         <v>-645.0599999999999</v>
       </c>
-      <c r="N25" t="n">
+      <c r="O25" t="n">
         <v>3200</v>
       </c>
-      <c r="O25" t="n">
+      <c r="P25" t="n">
         <v>3845.06</v>
       </c>
-      <c r="P25" t="n">
+      <c r="Q25" t="n">
         <v>-20.158125</v>
       </c>
     </row>
